--- a/u2l_backend/report_templates/shell_inventory_report.xlsx
+++ b/u2l_backend/report_templates/shell_inventory_report.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanip\Desktop\pratik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pahari\Desktop\Project_updates\Test n Delete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7889EF27-A41E-40AD-8BF4-907654E34F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424F67E9-A55F-445C-84F5-D6185DB03D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12390" yWindow="-16425" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="Doc Info" sheetId="3" r:id="rId2"/>
     <sheet name="Source Code Inventory" sheetId="12" r:id="rId3"/>
+    <sheet name="Scope of artefacts" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>Prepared by:</t>
   </si>
@@ -1130,6 +1168,15 @@
   </si>
   <si>
     <t>Shell Source Code Inventory Report</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total LoC</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1430,24 +1477,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1466,9 +1495,28 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1493,6 +1541,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1760,9 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2004,72 +2108,72 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="2:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="2:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="2:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="2:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="12" spans="2:15" ht="20" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
@@ -2089,36 +2193,36 @@
       <c r="E14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="30" t="s">
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="40"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
@@ -2141,208 +2245,208 @@
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="40"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="40"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="40"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="40"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="40"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="40"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="40"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="40"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="40"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="40"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="40"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34"/>
     </row>
     <row r="29" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="40"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="34"/>
     </row>
     <row r="32" spans="2:15" ht="20" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
@@ -2738,28 +2842,19 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="B8:C8"/>
@@ -2773,19 +2868,28 @@
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="F17:K17"/>
     <mergeCell ref="L17:O17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3393,4 +3497,316 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EB3752-D74A-48D2-9C77-25FE6AA65A1B}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="28.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="e" cm="1" vm="1">
+        <f t="array" ref="A2">_xlfn._xlws.FILTER(_xlfn.UNIQUE('Source Code Inventory'!$C$2:$C$10000), _xlfn.UNIQUE('Source Code Inventory'!$C$2:$C$10000)&lt;&gt;0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="42">
+        <f>COUNTIF('Source Code Inventory'!$C$2:$C$10000, A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="42">
+        <f>SUMIF('Source Code Inventory'!$C$2:$C$10000, $A2, 'Source Code Inventory'!$G$2:$G$10000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42">
+        <f>COUNTIF('Source Code Inventory'!$C$2:$C$10000, A3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="42">
+        <f>SUMIF('Source Code Inventory'!$C$2:$C$10000, $A3, 'Source Code Inventory'!$G$2:$G$10000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42">
+        <f>COUNTIF('Source Code Inventory'!$C$2:$C$10000, A4)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="42">
+        <f>SUMIF('Source Code Inventory'!$C$2:$C$10000, $A4, 'Source Code Inventory'!$G$2:$G$10000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42">
+        <f>COUNTIF('Source Code Inventory'!$C$2:$C$10000, A5)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="42">
+        <f>SUMIF('Source Code Inventory'!$C$2:$C$10000, $A5, 'Source Code Inventory'!$G$2:$G$10000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42">
+        <f>COUNTIF('Source Code Inventory'!$C$2:$C$10000, A6)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="42">
+        <f>SUMIF('Source Code Inventory'!$C$2:$C$10000, $A6, 'Source Code Inventory'!$G$2:$G$10000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>